--- a/src/draft/devvm-perfv10/OperationTime.xlsx
+++ b/src/draft/devvm-perfv10/OperationTime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536902F1-A5E5-4DF6-B90B-A19B5B3028C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062AED2F-18FE-48DB-9E07-3A2687298968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>VM Type</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Environment</t>
+  </si>
+  <si>
+    <t>Full compile</t>
+  </si>
+  <si>
+    <t>Full DB sync</t>
   </si>
 </sst>
 </file>
@@ -519,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -855,6 +861,72 @@
         <v>42</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -864,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40FF7C6-3210-40ED-8D86-0D18959BBCD9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
